--- a/CashFlow/CSGP_cashflow.xlsx
+++ b/CashFlow/CSGP_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>80000000.0</v>
+        <v>22231000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>85000000.0</v>
+        <v>100846000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>79087000.0</v>
+        <v>57428000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>44060000.0</v>
+        <v>32853000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>24683000.0</v>
+        <v>18247000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>17751000.0</v>
